--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,12 +47,12 @@
     <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
   </si>
   <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
     <t>Ceritificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
   </si>
   <si>
@@ -386,6 +386,18 @@
     <t>foroAvvocatoConiuge1</t>
   </si>
   <si>
+    <t>Data comunicazione</t>
+  </si>
+  <si>
+    <t>dataRicezioneAttoConiuge1</t>
+  </si>
+  <si>
+    <t>Protocollo</t>
+  </si>
+  <si>
+    <t>protocolloAttoConiuge1</t>
+  </si>
+  <si>
     <t>Avvocato Moglie</t>
   </si>
   <si>
@@ -393,24 +405,6 @@
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>Accordo Marito</t>
-  </si>
-  <si>
-    <t>Data ricezione</t>
-  </si>
-  <si>
-    <t>dataRicezioneAttoConiuge1</t>
-  </si>
-  <si>
-    <t>Protocollo</t>
-  </si>
-  <si>
-    <t>protocolloAttoConiuge1</t>
-  </si>
-  <si>
-    <t>Accordo Moglie</t>
   </si>
   <si>
     <t>dataRicezioneAttoConiuge2</t>
@@ -489,7 +483,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -497,34 +491,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="32.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="94.01171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="58.015625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="32.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -575,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -592,10 +587,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -615,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -635,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -655,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -675,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -815,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -835,7 +830,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
@@ -855,7 +850,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>31</v>
@@ -875,7 +870,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>31</v>
@@ -895,7 +890,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -915,7 +910,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
@@ -935,7 +930,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>31</v>
@@ -975,7 +970,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>50</v>
@@ -1175,7 +1170,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
@@ -1195,7 +1190,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>50</v>
@@ -1215,7 +1210,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>74</v>
@@ -1335,7 +1330,7 @@
         <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>74</v>
@@ -1355,7 +1350,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>74</v>
@@ -1375,7 +1370,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>74</v>
@@ -1395,7 +1390,7 @@
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>74</v>
@@ -1495,7 +1490,7 @@
         <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>74</v>
@@ -1515,7 +1510,7 @@
         <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>74</v>
@@ -1535,7 +1530,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>74</v>
@@ -1555,7 +1550,7 @@
         <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>74</v>
@@ -1575,7 +1570,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>74</v>
@@ -1655,7 +1650,7 @@
         <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>119</v>
@@ -1775,7 +1770,7 @@
         <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>119</v>
@@ -1795,7 +1790,7 @@
         <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>119</v>
@@ -1815,7 +1810,7 @@
         <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>119</v>
@@ -1835,7 +1830,7 @@
         <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>119</v>
@@ -1935,7 +1930,7 @@
         <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>119</v>
@@ -1955,7 +1950,7 @@
         <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>119</v>
@@ -1975,7 +1970,7 @@
         <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>119</v>
@@ -1995,7 +1990,7 @@
         <v>108</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>119</v>
@@ -2015,7 +2010,7 @@
         <v>110</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>119</v>
@@ -2095,7 +2090,7 @@
         <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>121</v>
@@ -2115,7 +2110,7 @@
         <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>121</v>
@@ -2135,7 +2130,7 @@
         <v>122</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>46</v>
@@ -2149,19 +2144,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>18</v>
@@ -2169,19 +2164,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>18</v>
@@ -2189,19 +2184,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
@@ -2209,87 +2204,87 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>30</v>
@@ -2298,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>32</v>
@@ -2309,7 +2304,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>33</v>
@@ -2318,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>34</v>
@@ -2329,7 +2324,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>35</v>
@@ -2338,7 +2333,7 @@
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>36</v>
@@ -2349,7 +2344,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>37</v>
@@ -2358,7 +2353,7 @@
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>38</v>
@@ -2369,7 +2364,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>39</v>
@@ -2378,7 +2373,7 @@
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>40</v>
@@ -2389,7 +2384,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>41</v>
@@ -2398,7 +2393,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>42</v>
@@ -2409,7 +2404,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>43</v>
@@ -2418,7 +2413,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>44</v>
@@ -2429,19 +2424,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2449,19 +2444,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2469,19 +2464,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2489,19 +2484,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2509,10 +2504,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
@@ -2521,7 +2516,7 @@
         <v>46</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2530,273 +2525,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D5169FF-CF88-43EE-ABCE-33A5682B4712}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD5C36C4-2603-480B-8842-2FDC866774B0}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{399451F2-D73A-4F21-A1D3-F16D80340A5E}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -810,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -819,7 +819,7 @@
         <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -830,7 +830,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
@@ -839,7 +839,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>31</v>
@@ -859,7 +859,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -870,7 +870,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>31</v>
@@ -890,7 +890,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -899,7 +899,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -910,7 +910,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
@@ -930,7 +930,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>31</v>
@@ -939,7 +939,7 @@
         <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -53,7 +56,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Ceritificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
+    <t>Certificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
   </si>
   <si>
     <t>Certificazione acquisita dall'avvocato dello sposo</t>
@@ -83,6 +86,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -380,6 +386,9 @@
     <t>evento.negoziazioneAssistita.avvocatoConiuge1</t>
   </si>
   <si>
+    <t>{evento.negoziazioneAssistita.presenzaAvvocatoConiuge1,=,false}</t>
+  </si>
+  <si>
     <t>Foro di appartenenza</t>
   </si>
   <si>
@@ -402,6 +411,9 @@
   </si>
   <si>
     <t>evento.negoziazioneAssistita.avvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>{evento.negoziazioneAssistita.presenzaAvvocatoConiuge2,=,false}</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -508,18 +520,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="32.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="93.5078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="58.015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="59.94140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,165 +554,192 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -721,1805 +761,2078 @@
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -50,10 +50,10 @@
     <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Certificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
@@ -589,7 +589,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -609,10 +609,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -1049,7 +1049,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>52</v>
@@ -1279,7 +1279,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>52</v>
@@ -1302,7 +1302,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>52</v>
@@ -1325,7 +1325,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>76</v>
@@ -1463,7 +1463,7 @@
         <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>76</v>
@@ -1486,7 +1486,7 @@
         <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>76</v>
@@ -1509,7 +1509,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>76</v>
@@ -1532,7 +1532,7 @@
         <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>76</v>
@@ -1647,7 +1647,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>76</v>
@@ -1670,7 +1670,7 @@
         <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>76</v>
@@ -1693,7 +1693,7 @@
         <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>76</v>
@@ -1716,7 +1716,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>76</v>
@@ -1739,7 +1739,7 @@
         <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>76</v>
@@ -1831,7 +1831,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>121</v>
@@ -1969,7 +1969,7 @@
         <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>121</v>
@@ -1992,7 +1992,7 @@
         <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>121</v>
@@ -2015,7 +2015,7 @@
         <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>121</v>
@@ -2038,7 +2038,7 @@
         <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>121</v>
@@ -2153,7 +2153,7 @@
         <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>121</v>
@@ -2176,7 +2176,7 @@
         <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>121</v>
@@ -2199,7 +2199,7 @@
         <v>108</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>121</v>
@@ -2222,7 +2222,7 @@
         <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>121</v>
@@ -2245,7 +2245,7 @@
         <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>121</v>
@@ -2383,7 +2383,7 @@
         <v>125</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>48</v>
@@ -2498,7 +2498,7 @@
         <v>125</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>48</v>
@@ -2728,7 +2728,7 @@
         <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>48</v>
@@ -2751,7 +2751,7 @@
         <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>48</v>
@@ -2774,7 +2774,7 @@
         <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>48</v>
@@ -2797,7 +2797,7 @@
         <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>48</v>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -443,18 +443,6 @@
     <t>dataComunicazioneProvvedimento</t>
   </si>
   <si>
-    <t>Data acquisizione avvocato marito</t>
-  </si>
-  <si>
-    <t>dataCertifAcquisitaAvvConiuge1</t>
-  </si>
-  <si>
-    <t>Data acquisizione avvocato moglie</t>
-  </si>
-  <si>
-    <t>dataCertifAcquisitaAvvConiuge2</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -462,6 +450,12 @@
   </si>
   <si>
     <t>tipoAccordo</t>
+  </si>
+  <si>
+    <t>Tipo provvedimento</t>
+  </si>
+  <si>
+    <t>tipoProvvedimento</t>
   </si>
 </sst>
 </file>
@@ -520,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -658,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -681,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -2737,7 +2731,7 @@
         <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>24</v>
@@ -2760,7 +2754,7 @@
         <v>142</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>24</v>
@@ -2768,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2791,47 +2785,24 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,46 +32,49 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Atto di matrimonio</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>Certificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
+  </si>
+  <si>
+    <t>Certificazione acquisita dall'avvocato dello sposo</t>
+  </si>
+  <si>
+    <t>Certificazione acquisita dall'avvocato dello sposa</t>
+  </si>
+  <si>
+    <t>Nulla osta</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193-ter</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Atto di matrimonio</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>Certificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
-  </si>
-  <si>
-    <t>Certificazione acquisita dall'avvocato dello sposo</t>
-  </si>
-  <si>
-    <t>Certificazione acquisita dall'avvocato dello sposa</t>
-  </si>
-  <si>
-    <t>Nulla osta</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193-ter</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -756,2054 +759,2054 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -389,7 +389,7 @@
     <t>evento.negoziazioneAssistita.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>{evento.negoziazioneAssistita.presenzaAvvocatoConiuge1,=,false}</t>
+    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge1,=,false</t>
   </si>
   <si>
     <t>Foro di appartenenza</t>
@@ -416,7 +416,7 @@
     <t>evento.negoziazioneAssistita.avvocatoConiuge2</t>
   </si>
   <si>
-    <t>{evento.negoziazioneAssistita.presenzaAvvocatoConiuge2,=,false}</t>
+    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge2,=,false</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -529,7 +529,7 @@
     <col min="4" max="4" width="58.015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="59.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="58.55859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -122,316 +122,292 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
+    <t>Testo da trascrivere</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita</t>
+  </si>
+  <si>
+    <t>testoTrascrizione</t>
+  </si>
+  <si>
+    <t>Atto di Matrimonio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita.attoMatrimonio</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Marito</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Moglie</t>
+  </si>
+  <si>
+    <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Avvocato Marito</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita.avvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge1,=,false</t>
+  </si>
+  <si>
+    <t>Foro di appartenenza</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>Data comunicazione</t>
+  </si>
+  <si>
+    <t>dataRicezioneAttoConiuge1</t>
+  </si>
+  <si>
+    <t>Protocollo</t>
+  </si>
+  <si>
+    <t>protocolloAttoConiuge1</t>
+  </si>
+  <si>
+    <t>Avvocato Moglie</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita.avvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge2,=,false</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>dataRicezioneAttoConiuge2</t>
+  </si>
+  <si>
+    <t>protocolloAttoConiuge2</t>
+  </si>
+  <si>
+    <t>Provvedimento Autorità Giudiziaria</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita.provvedimentoAutoritaGiudiziaria</t>
+  </si>
+  <si>
+    <t>Provincia</t>
   </si>
   <si>
     <t>idProvinciaEnte</t>
   </si>
   <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
+    <t>Comune</t>
   </si>
   <si>
     <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Testo da trascrivere</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita</t>
-  </si>
-  <si>
-    <t>testoTrascrizione</t>
-  </si>
-  <si>
-    <t>Atto di Matrimonio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita.attoMatrimonio</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Marito</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Moglie</t>
-  </si>
-  <si>
-    <t>evento.intestatari[1]</t>
-  </si>
-  <si>
-    <t>Avvocato Marito</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita.avvocatoConiuge1</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge1,=,false</t>
-  </si>
-  <si>
-    <t>Foro di appartenenza</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge1</t>
-  </si>
-  <si>
-    <t>Data comunicazione</t>
-  </si>
-  <si>
-    <t>dataRicezioneAttoConiuge1</t>
-  </si>
-  <si>
-    <t>Protocollo</t>
-  </si>
-  <si>
-    <t>protocolloAttoConiuge1</t>
-  </si>
-  <si>
-    <t>Avvocato Moglie</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita.avvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge2,=,false</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>dataRicezioneAttoConiuge2</t>
-  </si>
-  <si>
-    <t>protocolloAttoConiuge2</t>
-  </si>
-  <si>
-    <t>Provvedimento Autorità Giudiziaria</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita.provvedimentoAutoritaGiudiziaria</t>
   </si>
   <si>
     <t>Data deposito</t>
@@ -517,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -888,10 +864,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -902,19 +878,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -925,19 +901,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -948,19 +924,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -971,19 +947,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -994,19 +970,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1017,19 +993,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1040,19 +1016,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1063,19 +1039,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1086,19 +1062,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1109,19 +1085,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1132,19 +1108,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1155,19 +1131,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1178,22 +1154,22 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>25</v>
@@ -1201,19 +1177,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1224,19 +1200,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1247,19 +1223,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1270,19 +1246,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1293,19 +1269,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1316,22 +1292,22 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>25</v>
@@ -1339,22 +1315,22 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>25</v>
@@ -1362,16 +1338,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>82</v>
@@ -1385,22 +1361,22 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>25</v>
@@ -1408,7 +1384,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
@@ -1417,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>86</v>
@@ -1431,7 +1407,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>87</v>
@@ -1440,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>88</v>
@@ -1454,16 +1430,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>90</v>
@@ -1477,22 +1453,22 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>25</v>
@@ -1500,7 +1476,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>93</v>
@@ -1509,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>94</v>
@@ -1523,7 +1499,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>95</v>
@@ -1532,7 +1508,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>96</v>
@@ -1546,16 +1522,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>98</v>
@@ -1569,22 +1545,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>25</v>
@@ -1592,22 +1568,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>25</v>
@@ -1615,7 +1591,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>103</v>
@@ -1624,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>104</v>
@@ -1638,16 +1614,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>106</v>
@@ -1661,22 +1637,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>25</v>
@@ -1684,22 +1660,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>25</v>
@@ -1707,22 +1683,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>25</v>
@@ -1730,22 +1706,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>25</v>
@@ -1753,19 +1729,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1752,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1775,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,22 +1798,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>25</v>
@@ -1845,22 +1821,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>25</v>
@@ -1868,16 +1844,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>82</v>
@@ -1891,22 +1867,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>25</v>
@@ -1914,7 +1890,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>85</v>
@@ -1923,7 +1899,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>86</v>
@@ -1937,7 +1913,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>87</v>
@@ -1946,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>88</v>
@@ -1960,16 +1936,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>90</v>
@@ -1983,22 +1959,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>25</v>
@@ -2006,7 +1982,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>93</v>
@@ -2015,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>94</v>
@@ -2029,7 +2005,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>95</v>
@@ -2038,7 +2014,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>96</v>
@@ -2052,16 +2028,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>98</v>
@@ -2075,22 +2051,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>25</v>
@@ -2098,22 +2074,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>25</v>
@@ -2121,7 +2097,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>103</v>
@@ -2130,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>104</v>
@@ -2144,16 +2120,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>106</v>
@@ -2167,22 +2143,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>25</v>
@@ -2190,622 +2166,392 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -404,10 +404,22 @@
     <t>idProvinciaEnte</t>
   </si>
   <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
     <t>Comune</t>
   </si>
   <si>
     <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
   </si>
   <si>
     <t>Data deposito</t>
@@ -493,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2474,7 +2486,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>133</v>
@@ -2497,7 +2509,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>135</v>
@@ -2511,10 +2523,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2523,7 +2535,7 @@
         <v>37</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2534,10 +2546,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -2546,12 +2558,58 @@
         <v>37</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="B90" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -41,19 +41,19 @@
     <t>Atto di matrimonio</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
   </si>
   <si>
     <t>Certificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
@@ -574,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -594,10 +594,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -666,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -689,7 +689,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -712,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -758,7 +758,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
@@ -781,7 +781,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
@@ -827,7 +827,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
@@ -850,7 +850,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>34</v>
@@ -873,7 +873,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>37</v>
@@ -896,7 +896,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
@@ -919,7 +919,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -942,7 +942,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
@@ -965,7 +965,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>41</v>
@@ -988,7 +988,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>41</v>
@@ -1011,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>41</v>
@@ -1034,7 +1034,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>41</v>
@@ -1057,7 +1057,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>41</v>
@@ -1103,7 +1103,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>41</v>
@@ -1126,7 +1126,7 @@
         <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>41</v>
@@ -1149,7 +1149,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>41</v>
@@ -1172,7 +1172,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>65</v>
@@ -1195,7 +1195,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>65</v>
@@ -1218,7 +1218,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>65</v>
@@ -1241,7 +1241,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>65</v>
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>65</v>
@@ -1287,7 +1287,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>65</v>
@@ -1310,7 +1310,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>65</v>
@@ -1333,7 +1333,7 @@
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>65</v>
@@ -1356,7 +1356,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>65</v>
@@ -1379,7 +1379,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>65</v>
@@ -1402,7 +1402,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>65</v>
@@ -1425,7 +1425,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>65</v>
@@ -1448,7 +1448,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>65</v>
@@ -1471,7 +1471,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>65</v>
@@ -1494,7 +1494,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>65</v>
@@ -1517,7 +1517,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>65</v>
@@ -1540,7 +1540,7 @@
         <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>65</v>
@@ -1563,7 +1563,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>65</v>
@@ -1586,7 +1586,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>65</v>
@@ -1609,7 +1609,7 @@
         <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>65</v>
@@ -1632,7 +1632,7 @@
         <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>65</v>
@@ -1655,7 +1655,7 @@
         <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>65</v>
@@ -1678,7 +1678,7 @@
         <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>110</v>
@@ -1701,7 +1701,7 @@
         <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>110</v>
@@ -1724,7 +1724,7 @@
         <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>110</v>
@@ -1747,7 +1747,7 @@
         <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>110</v>
@@ -1770,7 +1770,7 @@
         <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>110</v>
@@ -1793,7 +1793,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>110</v>
@@ -1816,7 +1816,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>110</v>
@@ -1839,7 +1839,7 @@
         <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>110</v>
@@ -1862,7 +1862,7 @@
         <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>110</v>
@@ -1885,7 +1885,7 @@
         <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>110</v>
@@ -1908,7 +1908,7 @@
         <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>110</v>
@@ -1931,7 +1931,7 @@
         <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>110</v>
@@ -1954,7 +1954,7 @@
         <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>110</v>
@@ -1977,7 +1977,7 @@
         <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>110</v>
@@ -2000,7 +2000,7 @@
         <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>110</v>
@@ -2023,7 +2023,7 @@
         <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>110</v>
@@ -2046,7 +2046,7 @@
         <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>110</v>
@@ -2069,7 +2069,7 @@
         <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>110</v>
@@ -2092,7 +2092,7 @@
         <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>110</v>
@@ -2115,7 +2115,7 @@
         <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>110</v>
@@ -2138,7 +2138,7 @@
         <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>110</v>
@@ -2161,7 +2161,7 @@
         <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>110</v>
@@ -2184,7 +2184,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>112</v>
@@ -2207,7 +2207,7 @@
         <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>112</v>
@@ -2230,7 +2230,7 @@
         <v>114</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>37</v>
@@ -2253,7 +2253,7 @@
         <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>37</v>
@@ -2276,7 +2276,7 @@
         <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>37</v>
@@ -2299,7 +2299,7 @@
         <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>121</v>
@@ -2322,7 +2322,7 @@
         <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>121</v>
@@ -2345,7 +2345,7 @@
         <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>37</v>
@@ -2368,7 +2368,7 @@
         <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>37</v>
@@ -2391,7 +2391,7 @@
         <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>37</v>
@@ -2414,7 +2414,7 @@
         <v>33</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>127</v>
@@ -2437,7 +2437,7 @@
         <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>127</v>
@@ -2460,7 +2460,7 @@
         <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>127</v>
@@ -2483,7 +2483,7 @@
         <v>132</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>127</v>
@@ -2506,7 +2506,7 @@
         <v>134</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>127</v>
@@ -2529,7 +2529,7 @@
         <v>136</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>37</v>
@@ -2552,7 +2552,7 @@
         <v>138</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>37</v>
@@ -2575,7 +2575,7 @@
         <v>141</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>37</v>
@@ -2598,7 +2598,7 @@
         <v>143</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>37</v>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>tipoProvvedimento</t>
+  </si>
+  <si>
+    <t>Ricezione Atto</t>
+  </si>
+  <si>
+    <t>ricezioneAtto</t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2253,7 +2259,7 @@
         <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>37</v>
@@ -2262,7 +2268,7 @@
         <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>113</v>
@@ -2276,7 +2282,7 @@
         <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>37</v>
@@ -2285,7 +2291,7 @@
         <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>113</v>
@@ -2368,7 +2374,7 @@
         <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>37</v>
@@ -2377,7 +2383,7 @@
         <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>122</v>
@@ -2391,7 +2397,7 @@
         <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>37</v>
@@ -2400,7 +2406,7 @@
         <v>125</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>122</v>
@@ -2610,6 +2616,29 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -53,25 +53,31 @@
     <t>Decreto del Tribunale</t>
   </si>
   <si>
+    <t>evento.negoziazioneAssistita.tipoProvvedimento,=,2 || evento.negoziazioneAssistita.tipoProvvedimento,=,3</t>
+  </si>
+  <si>
+    <t>Certificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
+  </si>
+  <si>
+    <t>Certificazione acquisita dall'avvocato dello sposo</t>
+  </si>
+  <si>
+    <t>Certificazione acquisita dall'avvocato dello sposa</t>
+  </si>
+  <si>
+    <t>Nulla osta</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita.tipoProvvedimento,=,1</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193-ter</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Certificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
-  </si>
-  <si>
-    <t>Certificazione acquisita dall'avvocato dello sposo</t>
-  </si>
-  <si>
-    <t>Certificazione acquisita dall'avvocato dello sposa</t>
-  </si>
-  <si>
-    <t>Nulla osta</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193-ter</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -523,7 +529,7 @@
     <col min="4" max="4" width="58.015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="58.55859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="98.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -603,19 +609,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -695,7 +701,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -707,18 +713,18 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -753,1893 +759,1893 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -191,24 +191,24 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
   </si>
   <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
     <t>Marito</t>
   </si>
   <si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1115,7 +1121,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
@@ -1161,7 +1167,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
@@ -1414,7 +1420,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>67</v>
@@ -1423,7 +1429,7 @@
         <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>27</v>
@@ -1506,7 +1512,7 @@
         <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>67</v>
@@ -1538,7 +1544,7 @@
         <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>27</v>
@@ -1561,7 +1567,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>27</v>
@@ -1584,7 +1590,7 @@
         <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>27</v>
@@ -1621,7 +1627,7 @@
         <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>67</v>
@@ -1630,7 +1636,7 @@
         <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>27</v>
@@ -1684,22 +1690,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>27</v>
@@ -1707,22 +1713,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>27</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1805,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1845,22 +1851,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>27</v>
@@ -1868,22 +1874,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>27</v>
@@ -1891,22 +1897,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>27</v>
@@ -1914,22 +1920,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>27</v>
@@ -1937,22 +1943,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>27</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2029,22 +2035,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>27</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2081,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>20</v>
@@ -2098,22 +2104,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>27</v>
@@ -2121,22 +2127,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>27</v>
@@ -2144,22 +2150,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>27</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2193,7 +2199,7 @@
         <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>21</v>
@@ -2202,13 +2208,13 @@
         <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
@@ -2216,7 +2222,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>21</v>
@@ -2225,67 +2231,67 @@
         <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E75" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2294,113 +2300,113 @@
         <v>39</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2415,70 +2421,70 @@
         <v>20</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2541,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2581,10 +2587,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>21</v>
@@ -2593,7 +2599,7 @@
         <v>39</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,10 +2610,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>21</v>
@@ -2616,7 +2622,7 @@
         <v>39</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2627,10 +2633,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>21</v>
@@ -2639,12 +2645,58 @@
         <v>39</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,6 +351,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Moglie</t>
@@ -523,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1713,22 +1737,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>27</v>
@@ -1736,22 +1760,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>27</v>
@@ -1759,19 +1783,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1782,22 +1806,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>27</v>
@@ -1805,22 +1829,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>27</v>
@@ -1828,19 +1852,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1875,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1874,22 +1898,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>27</v>
@@ -1897,19 +1921,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1920,22 +1944,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>27</v>
@@ -1943,22 +1967,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>27</v>
@@ -1966,22 +1990,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>27</v>
@@ -1989,19 +2013,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2012,22 +2036,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>27</v>
@@ -2035,22 +2059,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>27</v>
@@ -2058,19 +2082,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,22 +2105,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>27</v>
@@ -2104,19 +2128,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,22 +2151,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>27</v>
@@ -2150,22 +2174,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>27</v>
@@ -2173,22 +2197,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2196,19 +2220,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2219,22 +2243,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>27</v>
@@ -2242,433 +2266,433 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2679,24 +2703,208 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -227,6 +227,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -281,13 +287,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1260,7 +1266,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>67</v>
@@ -1352,7 +1358,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>67</v>
@@ -1384,7 +1390,7 @@
         <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>27</v>
@@ -1407,7 +1413,7 @@
         <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>27</v>
@@ -1430,7 +1436,7 @@
         <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>27</v>
@@ -1467,7 +1473,7 @@
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>67</v>
@@ -1476,7 +1482,7 @@
         <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>27</v>
@@ -1559,7 +1565,7 @@
         <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>67</v>
@@ -1591,7 +1597,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>27</v>
@@ -1614,7 +1620,7 @@
         <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>27</v>
@@ -1637,7 +1643,7 @@
         <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>27</v>
@@ -1674,7 +1680,7 @@
         <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>67</v>
@@ -1683,7 +1689,7 @@
         <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>27</v>
@@ -1743,7 +1749,7 @@
         <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>67</v>
@@ -1775,7 +1781,7 @@
         <v>116</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>27</v>
@@ -1798,7 +1804,7 @@
         <v>118</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>27</v>
@@ -1821,7 +1827,7 @@
         <v>120</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>27</v>
@@ -1829,19 +1835,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
@@ -1852,22 +1858,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>27</v>
@@ -1875,19 +1881,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1904,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1950,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1973,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1990,22 +1996,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>27</v>
@@ -2013,19 +2019,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2042,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2059,22 +2065,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>27</v>
@@ -2082,22 +2088,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>27</v>
@@ -2105,22 +2111,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>27</v>
@@ -2128,19 +2134,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2157,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2180,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2197,22 +2203,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2249,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
@@ -2266,22 +2272,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>27</v>
@@ -2289,22 +2295,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>27</v>
@@ -2312,22 +2318,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2335,19 +2341,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2364,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2381,22 +2387,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>27</v>
@@ -2404,19 +2410,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2433,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>20</v>
@@ -2453,22 +2459,22 @@
         <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
@@ -2476,76 +2482,76 @@
         <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2554,113 +2560,113 @@
         <v>39</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2675,70 +2681,70 @@
         <v>20</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2755,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2778,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2795,19 +2801,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2824,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2841,10 +2847,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>21</v>
@@ -2853,7 +2859,7 @@
         <v>39</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2864,10 +2870,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>21</v>
@@ -2876,7 +2882,7 @@
         <v>39</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2887,10 +2893,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>21</v>
@@ -2899,12 +2905,58 @@
         <v>39</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1542,7 +1548,7 @@
         <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>67</v>
@@ -1551,7 +1557,7 @@
         <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>27</v>
@@ -1565,7 +1571,7 @@
         <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>67</v>
@@ -1597,7 +1603,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>27</v>
@@ -1620,7 +1626,7 @@
         <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>27</v>
@@ -1643,7 +1649,7 @@
         <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>27</v>
@@ -1666,7 +1672,7 @@
         <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>27</v>
@@ -1703,7 +1709,7 @@
         <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>67</v>
@@ -1712,7 +1718,7 @@
         <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -1772,7 +1778,7 @@
         <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>67</v>
@@ -1804,7 +1810,7 @@
         <v>118</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>27</v>
@@ -1827,7 +1833,7 @@
         <v>120</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>27</v>
@@ -1850,7 +1856,7 @@
         <v>122</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>27</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>20</v>
@@ -1881,22 +1887,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>27</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2002,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2042,22 +2048,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>27</v>
@@ -2065,22 +2071,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>27</v>
@@ -2088,22 +2094,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>27</v>
@@ -2111,19 +2117,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>20</v>
@@ -2134,22 +2140,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>27</v>
@@ -2157,19 +2163,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,22 +2209,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2226,19 +2232,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>20</v>
@@ -2318,22 +2324,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2341,22 +2347,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>27</v>
@@ -2364,22 +2370,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>27</v>
@@ -2387,19 +2393,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,22 +2439,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>27</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
@@ -2505,22 +2511,22 @@
         <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
@@ -2528,76 +2534,76 @@
         <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E87" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -2606,113 +2612,113 @@
         <v>39</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2727,70 +2733,70 @@
         <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2801,19 +2807,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2824,19 +2830,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2847,19 +2853,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2870,19 +2876,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2893,10 +2899,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>21</v>
@@ -2905,7 +2911,7 @@
         <v>39</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2916,10 +2922,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>21</v>
@@ -2928,7 +2934,7 @@
         <v>39</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,10 +2945,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>21</v>
@@ -2951,12 +2957,58 @@
         <v>39</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -299,6 +299,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
+  </si>
+  <si>
     <t>Residenza non nota</t>
   </si>
   <si>
@@ -398,16 +404,19 @@
     <t>Avvocato Marito</t>
   </si>
   <si>
+    <t>Foro di appartenenza</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge1,=,false</t>
+  </si>
+  <si>
     <t>evento.negoziazioneAssistita.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge1,=,false</t>
-  </si>
-  <si>
-    <t>Foro di appartenenza</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge1</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Data comunicazione</t>
@@ -425,13 +434,13 @@
     <t>Avvocato Moglie</t>
   </si>
   <si>
+    <t>foroAvvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge2,=,false</t>
+  </si>
+  <si>
     <t>evento.negoziazioneAssistita.avvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge2,=,false</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
     <t>dataRicezioneAttoConiuge2</t>
@@ -559,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1580,7 +1589,7 @@
         <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>27</v>
@@ -1603,7 +1612,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>27</v>
@@ -1626,7 +1635,7 @@
         <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>27</v>
@@ -1649,7 +1658,7 @@
         <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>27</v>
@@ -1672,7 +1681,7 @@
         <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>27</v>
@@ -1695,7 +1704,7 @@
         <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>27</v>
@@ -1732,7 +1741,7 @@
         <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>67</v>
@@ -1741,7 +1750,7 @@
         <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>27</v>
@@ -1801,7 +1810,7 @@
         <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>67</v>
@@ -1833,7 +1842,7 @@
         <v>120</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>27</v>
@@ -1856,7 +1865,7 @@
         <v>122</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>27</v>
@@ -1879,7 +1888,7 @@
         <v>124</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>27</v>
@@ -1887,19 +1896,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>20</v>
@@ -1910,22 +1919,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>27</v>
@@ -1933,19 +1942,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1965,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1979,19 +1988,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2002,19 +2011,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2034,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2048,19 +2057,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2071,22 +2080,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>27</v>
@@ -2094,22 +2103,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>27</v>
@@ -2117,22 +2126,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>27</v>
@@ -2140,19 +2149,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>20</v>
@@ -2163,22 +2172,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>27</v>
@@ -2186,19 +2195,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2209,22 +2218,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2232,22 +2241,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>27</v>
@@ -2255,19 +2264,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
@@ -2278,19 +2287,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2310,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>20</v>
@@ -2324,19 +2333,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2356,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>20</v>
@@ -2370,22 +2379,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>27</v>
@@ -2393,22 +2402,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>27</v>
@@ -2416,22 +2425,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>27</v>
@@ -2439,19 +2448,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2471,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2485,22 +2494,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>27</v>
@@ -2508,19 +2517,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2540,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>20</v>
@@ -2557,22 +2566,22 @@
         <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
@@ -2580,27 +2589,27 @@
         <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>130</v>
@@ -2618,397 +2627,1547 @@
         <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
   </si>
   <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita.tipoProvvedimento,=,2 || evento.negoziazioneAssistita.tipoProvvedimento,=,3</t>
-  </si>
-  <si>
     <t>Certificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
   </si>
   <si>
@@ -65,19 +59,16 @@
     <t>Certificazione acquisita dall'avvocato dello sposa</t>
   </si>
   <si>
-    <t>Nulla osta</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita.tipoProvvedimento,=,1</t>
+    <t>Negoziazione assistita e nulla osta o autorizzazione</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
   <si>
     <t>Formula</t>
   </si>
   <si>
     <t>193-ter</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -568,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -580,7 +571,7 @@
     <col min="4" max="4" width="58.015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="98.00390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="58.55859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -672,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -680,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -703,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -726,10 +717,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -746,13 +737,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -764,67 +755,67 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -833,87 +824,87 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
@@ -925,3172 +916,3172 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="E138" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="E142" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>158</v>
@@ -4099,76 +4090,53 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -559,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1180,7 +1186,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>40</v>
@@ -1197,22 +1203,22 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>24</v>
@@ -1220,22 +1226,22 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>24</v>
@@ -1243,16 +1249,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -1266,16 +1272,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
@@ -1289,7 +1295,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>72</v>
@@ -1298,7 +1304,7 @@
         <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>73</v>
@@ -1312,7 +1318,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>74</v>
@@ -1321,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>75</v>
@@ -1335,7 +1341,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>76</v>
@@ -1344,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>77</v>
@@ -1358,16 +1364,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>79</v>
@@ -1381,7 +1387,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>80</v>
@@ -1390,13 +1396,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>24</v>
@@ -1404,7 +1410,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>82</v>
@@ -1413,13 +1419,13 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>24</v>
@@ -1427,7 +1433,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>84</v>
@@ -1436,13 +1442,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>24</v>
@@ -1450,7 +1456,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>86</v>
@@ -1459,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>87</v>
@@ -1473,22 +1479,22 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>24</v>
@@ -1496,7 +1502,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>90</v>
@@ -1505,7 +1511,7 @@
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>91</v>
@@ -1519,22 +1525,22 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>24</v>
@@ -1542,7 +1548,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>94</v>
@@ -1551,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>95</v>
@@ -1565,7 +1571,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>96</v>
@@ -1574,13 +1580,13 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>24</v>
@@ -1588,7 +1594,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>98</v>
@@ -1597,13 +1603,13 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>24</v>
@@ -1611,7 +1617,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>100</v>
@@ -1620,13 +1626,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>24</v>
@@ -1634,7 +1640,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>102</v>
@@ -1643,13 +1649,13 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>24</v>
@@ -1657,7 +1663,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>104</v>
@@ -1666,13 +1672,13 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>24</v>
@@ -1680,7 +1686,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>106</v>
@@ -1689,13 +1695,13 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>24</v>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>108</v>
@@ -1712,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>109</v>
@@ -1726,22 +1732,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>24</v>
@@ -1749,7 +1755,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>112</v>
@@ -1758,7 +1764,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>113</v>
@@ -1772,7 +1778,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>114</v>
@@ -1781,7 +1787,7 @@
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>115</v>
@@ -1795,16 +1801,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>117</v>
@@ -1818,7 +1824,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>118</v>
@@ -1827,13 +1833,13 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>24</v>
@@ -1841,7 +1847,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>120</v>
@@ -1850,13 +1856,13 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>24</v>
@@ -1864,7 +1870,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>122</v>
@@ -1873,13 +1879,13 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>24</v>
@@ -1887,19 +1893,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>18</v>
@@ -1910,22 +1916,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>24</v>
@@ -1933,16 +1939,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>69</v>
@@ -1956,16 +1962,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>71</v>
@@ -1979,7 +1985,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>72</v>
@@ -1988,7 +1994,7 @@
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>73</v>
@@ -2002,7 +2008,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>74</v>
@@ -2011,7 +2017,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>75</v>
@@ -2025,7 +2031,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>76</v>
@@ -2034,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>77</v>
@@ -2048,16 +2054,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>79</v>
@@ -2071,7 +2077,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>80</v>
@@ -2080,13 +2086,13 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>24</v>
@@ -2094,7 +2100,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>82</v>
@@ -2103,13 +2109,13 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>24</v>
@@ -2117,7 +2123,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>84</v>
@@ -2126,13 +2132,13 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>24</v>
@@ -2140,7 +2146,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>86</v>
@@ -2149,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>87</v>
@@ -2163,22 +2169,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>24</v>
@@ -2186,7 +2192,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>90</v>
@@ -2195,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>91</v>
@@ -2209,22 +2215,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>24</v>
@@ -2232,7 +2238,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>94</v>
@@ -2241,7 +2247,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>95</v>
@@ -2255,7 +2261,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>96</v>
@@ -2264,13 +2270,13 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>24</v>
@@ -2278,7 +2284,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>98</v>
@@ -2287,13 +2293,13 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>24</v>
@@ -2301,7 +2307,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>100</v>
@@ -2310,13 +2316,13 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>24</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>102</v>
@@ -2333,13 +2339,13 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>24</v>
@@ -2347,7 +2353,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>104</v>
@@ -2356,13 +2362,13 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>24</v>
@@ -2370,7 +2376,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>106</v>
@@ -2379,13 +2385,13 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>24</v>
@@ -2393,7 +2399,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>108</v>
@@ -2402,7 +2408,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>109</v>
@@ -2416,22 +2422,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>24</v>
@@ -2439,7 +2445,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>112</v>
@@ -2448,7 +2454,7 @@
         <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>113</v>
@@ -2462,7 +2468,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>114</v>
@@ -2471,7 +2477,7 @@
         <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2485,16 +2491,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>117</v>
@@ -2508,7 +2514,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>118</v>
@@ -2517,13 +2523,13 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>24</v>
@@ -2531,7 +2537,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>120</v>
@@ -2540,13 +2546,13 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>24</v>
@@ -2554,7 +2560,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>122</v>
@@ -2563,13 +2569,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>24</v>
@@ -2580,59 +2586,59 @@
         <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>67</v>
@@ -2641,21 +2647,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>69</v>
@@ -2664,12 +2670,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>70</v>
@@ -2678,7 +2684,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>71</v>
@@ -2687,12 +2693,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>72</v>
@@ -2701,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>73</v>
@@ -2710,12 +2716,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>74</v>
@@ -2724,7 +2730,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>75</v>
@@ -2733,12 +2739,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>76</v>
@@ -2747,7 +2753,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>77</v>
@@ -2756,12 +2762,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>78</v>
@@ -2770,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>79</v>
@@ -2779,12 +2785,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>80</v>
@@ -2793,7 +2799,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>81</v>
@@ -2802,12 +2808,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>82</v>
@@ -2816,7 +2822,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>83</v>
@@ -2825,12 +2831,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>84</v>
@@ -2839,7 +2845,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>85</v>
@@ -2848,12 +2854,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>86</v>
@@ -2862,7 +2868,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>87</v>
@@ -2871,12 +2877,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>88</v>
@@ -2885,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>89</v>
@@ -2894,12 +2900,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>90</v>
@@ -2908,7 +2914,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>91</v>
@@ -2917,12 +2923,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>92</v>
@@ -2931,7 +2937,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>93</v>
@@ -2940,12 +2946,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>94</v>
@@ -2954,7 +2960,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>95</v>
@@ -2963,12 +2969,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>96</v>
@@ -2977,7 +2983,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>97</v>
@@ -2986,12 +2992,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>98</v>
@@ -3000,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>99</v>
@@ -3009,12 +3015,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>100</v>
@@ -3023,7 +3029,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>101</v>
@@ -3032,12 +3038,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>102</v>
@@ -3046,7 +3052,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>103</v>
@@ -3055,12 +3061,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>104</v>
@@ -3069,7 +3075,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>105</v>
@@ -3078,12 +3084,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>106</v>
@@ -3092,7 +3098,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>107</v>
@@ -3101,12 +3107,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>108</v>
@@ -3115,7 +3121,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>109</v>
@@ -3124,21 +3130,21 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>111</v>
@@ -3147,12 +3153,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>112</v>
@@ -3161,7 +3167,7 @@
         <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>113</v>
@@ -3170,21 +3176,21 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>115</v>
@@ -3193,35 +3199,35 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>134</v>
@@ -3239,15 +3245,15 @@
         <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3262,44 +3268,44 @@
         <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>67</v>
@@ -3308,21 +3314,21 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>69</v>
@@ -3331,12 +3337,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>70</v>
@@ -3345,7 +3351,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>71</v>
@@ -3354,12 +3360,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>72</v>
@@ -3368,7 +3374,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>73</v>
@@ -3377,12 +3383,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>74</v>
@@ -3391,7 +3397,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>75</v>
@@ -3400,12 +3406,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>76</v>
@@ -3414,7 +3420,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>77</v>
@@ -3423,12 +3429,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>78</v>
@@ -3437,7 +3443,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>79</v>
@@ -3446,12 +3452,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>80</v>
@@ -3460,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>81</v>
@@ -3469,12 +3475,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>82</v>
@@ -3483,7 +3489,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>83</v>
@@ -3492,12 +3498,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>84</v>
@@ -3506,7 +3512,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>85</v>
@@ -3515,12 +3521,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>86</v>
@@ -3529,7 +3535,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>87</v>
@@ -3538,12 +3544,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>88</v>
@@ -3552,7 +3558,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>89</v>
@@ -3561,12 +3567,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>90</v>
@@ -3575,7 +3581,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>91</v>
@@ -3584,12 +3590,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>92</v>
@@ -3598,7 +3604,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>93</v>
@@ -3607,12 +3613,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>94</v>
@@ -3621,7 +3627,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>95</v>
@@ -3630,12 +3636,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>96</v>
@@ -3644,7 +3650,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>97</v>
@@ -3653,12 +3659,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>98</v>
@@ -3667,7 +3673,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>99</v>
@@ -3676,12 +3682,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>100</v>
@@ -3690,7 +3696,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>101</v>
@@ -3699,12 +3705,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>102</v>
@@ -3713,7 +3719,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>103</v>
@@ -3722,12 +3728,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>104</v>
@@ -3736,7 +3742,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>105</v>
@@ -3745,12 +3751,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>106</v>
@@ -3759,7 +3765,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>107</v>
@@ -3768,12 +3774,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>108</v>
@@ -3782,7 +3788,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>109</v>
@@ -3791,21 +3797,21 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>111</v>
@@ -3814,12 +3820,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>112</v>
@@ -3828,7 +3834,7 @@
         <v>16</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>113</v>
@@ -3837,21 +3843,21 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>115</v>
@@ -3860,35 +3866,35 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>134</v>
@@ -3900,53 +3906,53 @@
         <v>36</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3957,7 +3963,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>146</v>
@@ -3966,7 +3972,7 @@
         <v>16</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>147</v>
@@ -3980,7 +3986,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>148</v>
@@ -3989,7 +3995,7 @@
         <v>16</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>149</v>
@@ -4003,7 +4009,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>150</v>
@@ -4012,7 +4018,7 @@
         <v>16</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>151</v>
@@ -4026,7 +4032,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>152</v>
@@ -4035,7 +4041,7 @@
         <v>16</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>153</v>
@@ -4049,7 +4055,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>154</v>
@@ -4072,10 +4078,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>16</v>
@@ -4084,7 +4090,7 @@
         <v>36</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4095,7 +4101,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>159</v>
@@ -4118,7 +4124,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>161</v>
@@ -4136,6 +4142,29 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -128,6 +128,84 @@
     <t>testoTrascrizione</t>
   </si>
   <si>
+    <t>Atto Nascita Sposo</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Nascita Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
+  </si>
+  <si>
     <t>Atto di Matrimonio</t>
   </si>
   <si>
@@ -140,72 +218,6 @@
     <t>idAnsc</t>
   </si>
   <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
     <t>Marito</t>
   </si>
   <si>
@@ -407,7 +419,7 @@
     <t>foroAvvocatoConiuge1</t>
   </si>
   <si>
-    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge1,=,false</t>
+    <t>evento.negoziazioneAssistita.ricezioneAtto,=,2</t>
   </si>
   <si>
     <t>evento.negoziazioneAssistita.avvocatoConiuge1</t>
@@ -434,7 +446,7 @@
     <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
-    <t>evento.negoziazioneAssistita.presenzaAvvocatoConiuge2,=,false</t>
+    <t>evento.negoziazioneAssistita.ricezioneAtto,=,1</t>
   </si>
   <si>
     <t>evento.negoziazioneAssistita.avvocatoConiuge2</t>
@@ -565,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -577,7 +589,7 @@
     <col min="4" max="4" width="58.015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="58.55859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="42.73046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -956,7 +968,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>40</v>
@@ -979,7 +991,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>40</v>
@@ -1002,7 +1014,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>40</v>
@@ -1025,7 +1037,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -1048,13 +1060,13 @@
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1068,16 +1080,16 @@
         <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1094,13 +1106,13 @@
         <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1114,7 +1126,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1123,7 +1135,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1203,19 +1215,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1226,22 +1238,22 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>24</v>
@@ -1249,19 +1261,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1272,19 +1284,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1295,19 +1307,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1318,19 +1330,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1341,19 +1353,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1364,19 +1376,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1387,19 +1399,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1410,22 +1422,22 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>24</v>
@@ -1433,19 +1445,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1456,22 +1468,22 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>24</v>
@@ -1482,7 +1494,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1491,10 +1503,10 @@
         <v>66</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>24</v>
@@ -1505,7 +1517,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>16</v>
@@ -1514,7 +1526,7 @@
         <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1528,7 +1540,7 @@
         <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>16</v>
@@ -1537,7 +1549,7 @@
         <v>66</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1563,19 @@
         <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>24</v>
@@ -1574,19 +1586,19 @@
         <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>24</v>
@@ -1597,16 +1609,16 @@
         <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1632,19 @@
         <v>64</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>24</v>
@@ -1643,16 +1655,16 @@
         <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1666,7 +1678,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1675,10 +1687,10 @@
         <v>66</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>24</v>
@@ -1689,7 +1701,7 @@
         <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1698,7 +1710,7 @@
         <v>66</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1712,7 +1724,7 @@
         <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -1721,10 +1733,10 @@
         <v>66</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>24</v>
@@ -1735,7 +1747,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -1744,10 +1756,10 @@
         <v>66</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>24</v>
@@ -1758,7 +1770,7 @@
         <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
@@ -1767,7 +1779,7 @@
         <v>66</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1778,22 +1790,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>24</v>
@@ -1801,19 +1813,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1836,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1847,22 +1859,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>24</v>
@@ -1870,19 +1882,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1893,22 +1905,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>24</v>
@@ -1916,22 +1928,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>24</v>
@@ -1939,19 +1951,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1962,22 +1974,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>24</v>
@@ -1985,19 +1997,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2008,22 +2020,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>24</v>
@@ -2031,22 +2043,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>24</v>
@@ -2054,19 +2066,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2077,19 +2089,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2112,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>18</v>
@@ -2123,22 +2135,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>24</v>
@@ -2146,22 +2158,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>24</v>
@@ -2169,19 +2181,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>18</v>
@@ -2192,19 +2204,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2215,22 +2227,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>24</v>
@@ -2238,22 +2250,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>24</v>
@@ -2261,19 +2273,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
@@ -2284,22 +2296,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>24</v>
@@ -2307,22 +2319,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>24</v>
@@ -2330,19 +2342,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2353,22 +2365,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>24</v>
@@ -2376,19 +2388,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2411,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>18</v>
@@ -2422,22 +2434,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>24</v>
@@ -2445,22 +2457,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>24</v>
@@ -2468,22 +2480,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>24</v>
@@ -2491,19 +2503,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2526,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2537,22 +2549,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>24</v>
@@ -2560,19 +2572,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2583,22 +2595,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>24</v>
@@ -2606,1565 +2618,2117 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="C176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="C178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -577,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1888,7 +1900,7 @@
         <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>70</v>
@@ -1911,7 +1923,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>70</v>
@@ -1920,7 +1932,7 @@
         <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>24</v>
@@ -1957,7 +1969,7 @@
         <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>70</v>
@@ -1980,7 +1992,7 @@
         <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>70</v>
@@ -1989,7 +2001,7 @@
         <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>24</v>
@@ -2058,7 +2070,7 @@
         <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>24</v>
@@ -2072,7 +2084,7 @@
         <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>70</v>
@@ -2081,7 +2093,7 @@
         <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>24</v>
@@ -2095,7 +2107,7 @@
         <v>96</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>70</v>
@@ -2104,7 +2116,7 @@
         <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>24</v>
@@ -2118,7 +2130,7 @@
         <v>98</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>70</v>
@@ -2127,7 +2139,7 @@
         <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>24</v>
@@ -2141,7 +2153,7 @@
         <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>70</v>
@@ -2150,7 +2162,7 @@
         <v>101</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>24</v>
@@ -2173,7 +2185,7 @@
         <v>103</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>24</v>
@@ -2311,7 +2323,7 @@
         <v>115</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>24</v>
@@ -2325,7 +2337,7 @@
         <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>70</v>
@@ -2334,7 +2346,7 @@
         <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>24</v>
@@ -2348,7 +2360,7 @@
         <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>70</v>
@@ -2357,7 +2369,7 @@
         <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>24</v>
@@ -2394,7 +2406,7 @@
         <v>122</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>70</v>
@@ -2417,7 +2429,7 @@
         <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>70</v>
@@ -2426,7 +2438,7 @@
         <v>125</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>24</v>
@@ -2480,22 +2492,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>24</v>
@@ -2503,22 +2515,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>24</v>
@@ -2526,22 +2538,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>24</v>
@@ -2549,19 +2561,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2584,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2607,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2630,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2641,22 +2653,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>24</v>
@@ -2664,22 +2676,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>24</v>
@@ -2687,19 +2699,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2710,22 +2722,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>24</v>
@@ -2733,22 +2745,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>24</v>
@@ -2756,22 +2768,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>24</v>
@@ -2779,19 +2791,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2802,19 +2814,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>18</v>
@@ -2825,19 +2837,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>18</v>
@@ -2848,19 +2860,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2871,22 +2883,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>24</v>
@@ -2894,22 +2906,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>24</v>
@@ -2917,19 +2929,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>18</v>
@@ -2940,19 +2952,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2963,19 +2975,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>18</v>
@@ -2986,22 +2998,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>24</v>
@@ -3009,22 +3021,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>24</v>
@@ -3032,19 +3044,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3055,22 +3067,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>24</v>
@@ -3078,22 +3090,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>24</v>
@@ -3101,22 +3113,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>24</v>
@@ -3124,19 +3136,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3147,22 +3159,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>24</v>
@@ -3170,1413 +3182,1413 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>16</v>
@@ -4585,21 +4597,21 @@
         <v>149</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>16</v>
@@ -4608,99 +4620,99 @@
         <v>149</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4711,24 +4723,208 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="C186" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E186" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,10 +119,16 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>Data stipula accordo</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita</t>
+  </si>
+  <si>
+    <t>dataStipulaAccordo</t>
+  </si>
+  <si>
     <t>Testo da trascrivere</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita</t>
   </si>
   <si>
     <t>testoTrascrizione</t>
@@ -589,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -951,19 +957,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -974,16 +980,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -997,7 +1003,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
@@ -1006,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -1020,7 +1026,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
@@ -1029,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -1043,7 +1049,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
@@ -1052,7 +1058,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -1066,7 +1072,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
@@ -1075,10 +1081,10 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1089,19 +1095,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1112,7 +1118,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>53</v>
@@ -1121,10 +1127,10 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1135,19 +1141,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1158,7 +1164,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>56</v>
@@ -1167,7 +1173,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>57</v>
@@ -1181,7 +1187,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>58</v>
@@ -1190,7 +1196,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>59</v>
@@ -1204,7 +1210,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>60</v>
@@ -1213,7 +1219,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>61</v>
@@ -1227,19 +1233,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1250,16 +1256,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>43</v>
@@ -1273,7 +1279,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>44</v>
@@ -1282,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>45</v>
@@ -1296,7 +1302,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>46</v>
@@ -1305,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>47</v>
@@ -1319,7 +1325,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>48</v>
@@ -1328,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>49</v>
@@ -1342,7 +1348,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>50</v>
@@ -1351,10 +1357,10 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1365,19 +1371,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>53</v>
@@ -1397,10 +1403,10 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1411,19 +1417,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1434,7 +1440,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>56</v>
@@ -1443,7 +1449,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>57</v>
@@ -1457,7 +1463,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>58</v>
@@ -1466,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>59</v>
@@ -1480,7 +1486,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>60</v>
@@ -1489,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>61</v>
@@ -1506,16 +1512,16 @@
         <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1532,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1549,16 +1555,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>43</v>
@@ -1572,7 +1578,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>44</v>
@@ -1581,7 +1587,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>45</v>
@@ -1595,7 +1601,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>46</v>
@@ -1604,7 +1610,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>47</v>
@@ -1618,7 +1624,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>48</v>
@@ -1627,7 +1633,7 @@
         <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>49</v>
@@ -1641,7 +1647,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>50</v>
@@ -1650,10 +1656,10 @@
         <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1664,19 +1670,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1733,7 +1739,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>56</v>
@@ -1742,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>57</v>
@@ -1756,7 +1762,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>58</v>
@@ -1765,7 +1771,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>59</v>
@@ -1779,16 +1785,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>61</v>
@@ -1802,22 +1808,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>24</v>
@@ -1825,22 +1831,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>24</v>
@@ -1848,16 +1854,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>75</v>
@@ -1871,16 +1877,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>77</v>
@@ -1894,16 +1900,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>79</v>
@@ -1917,7 +1923,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>80</v>
@@ -1926,13 +1932,13 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>24</v>
@@ -1940,22 +1946,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>24</v>
@@ -1963,7 +1969,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>84</v>
@@ -1972,7 +1978,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>85</v>
@@ -1986,7 +1992,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>86</v>
@@ -1995,7 +2001,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>87</v>
@@ -2009,16 +2015,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>89</v>
@@ -2032,7 +2038,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>90</v>
@@ -2041,13 +2047,13 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>24</v>
@@ -2055,7 +2061,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>92</v>
@@ -2064,13 +2070,13 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>24</v>
@@ -2078,7 +2084,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>94</v>
@@ -2087,13 +2093,13 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>24</v>
@@ -2101,7 +2107,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>96</v>
@@ -2110,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>97</v>
@@ -2124,22 +2130,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>24</v>
@@ -2147,7 +2153,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>100</v>
@@ -2156,7 +2162,7 @@
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>101</v>
@@ -2170,22 +2176,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>24</v>
@@ -2193,7 +2199,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>104</v>
@@ -2202,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>105</v>
@@ -2216,7 +2222,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>106</v>
@@ -2225,13 +2231,13 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>24</v>
@@ -2239,7 +2245,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>108</v>
@@ -2248,13 +2254,13 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>24</v>
@@ -2262,7 +2268,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>110</v>
@@ -2271,13 +2277,13 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>24</v>
@@ -2285,7 +2291,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>112</v>
@@ -2294,13 +2300,13 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>24</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>114</v>
@@ -2317,13 +2323,13 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>24</v>
@@ -2331,7 +2337,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>116</v>
@@ -2340,13 +2346,13 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>24</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>118</v>
@@ -2363,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>119</v>
@@ -2377,22 +2383,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>24</v>
@@ -2400,7 +2406,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>122</v>
@@ -2409,7 +2415,7 @@
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>123</v>
@@ -2423,7 +2429,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>124</v>
@@ -2432,7 +2438,7 @@
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>125</v>
@@ -2446,16 +2452,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>127</v>
@@ -2469,7 +2475,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>128</v>
@@ -2478,13 +2484,13 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>24</v>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>130</v>
@@ -2501,13 +2507,13 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>24</v>
@@ -2515,7 +2521,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>132</v>
@@ -2524,13 +2530,13 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>24</v>
@@ -2538,19 +2544,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>18</v>
@@ -2561,22 +2567,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>24</v>
@@ -2584,16 +2590,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>75</v>
@@ -2607,16 +2613,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>77</v>
@@ -2630,16 +2636,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>79</v>
@@ -2653,7 +2659,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>80</v>
@@ -2662,13 +2668,13 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>24</v>
@@ -2676,22 +2682,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>24</v>
@@ -2699,7 +2705,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>84</v>
@@ -2708,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>85</v>
@@ -2722,7 +2728,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>86</v>
@@ -2731,7 +2737,7 @@
         <v>16</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>87</v>
@@ -2745,16 +2751,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>89</v>
@@ -2768,7 +2774,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>90</v>
@@ -2777,13 +2783,13 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>24</v>
@@ -2791,7 +2797,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>92</v>
@@ -2800,13 +2806,13 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>24</v>
@@ -2814,7 +2820,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>94</v>
@@ -2823,13 +2829,13 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>24</v>
@@ -2837,7 +2843,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>96</v>
@@ -2846,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>97</v>
@@ -2860,22 +2866,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>24</v>
@@ -2883,7 +2889,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>100</v>
@@ -2892,7 +2898,7 @@
         <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>101</v>
@@ -2906,22 +2912,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>24</v>
@@ -2929,7 +2935,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>104</v>
@@ -2938,7 +2944,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>105</v>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>106</v>
@@ -2961,13 +2967,13 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>24</v>
@@ -2975,7 +2981,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>108</v>
@@ -2984,13 +2990,13 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>24</v>
@@ -2998,7 +3004,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>110</v>
@@ -3007,13 +3013,13 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>24</v>
@@ -3021,7 +3027,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>112</v>
@@ -3030,13 +3036,13 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>24</v>
@@ -3044,7 +3050,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>114</v>
@@ -3053,13 +3059,13 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>24</v>
@@ -3067,7 +3073,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>116</v>
@@ -3076,13 +3082,13 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>24</v>
@@ -3090,7 +3096,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>118</v>
@@ -3099,7 +3105,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>119</v>
@@ -3113,22 +3119,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>24</v>
@@ -3136,7 +3142,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>122</v>
@@ -3145,7 +3151,7 @@
         <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>123</v>
@@ -3159,7 +3165,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>124</v>
@@ -3168,7 +3174,7 @@
         <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>125</v>
@@ -3182,16 +3188,16 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>127</v>
@@ -3205,7 +3211,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>128</v>
@@ -3214,13 +3220,13 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>24</v>
@@ -3228,7 +3234,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>130</v>
@@ -3237,13 +3243,13 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>24</v>
@@ -3251,7 +3257,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>132</v>
@@ -3260,13 +3266,13 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>24</v>
@@ -3277,59 +3283,59 @@
         <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>73</v>
@@ -3338,21 +3344,21 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>75</v>
@@ -3361,12 +3367,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>76</v>
@@ -3375,7 +3381,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>77</v>
@@ -3384,12 +3390,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>78</v>
@@ -3398,7 +3404,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>79</v>
@@ -3407,12 +3413,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>80</v>
@@ -3421,7 +3427,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>81</v>
@@ -3430,12 +3436,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>82</v>
@@ -3444,7 +3450,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>83</v>
@@ -3453,12 +3459,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>84</v>
@@ -3467,7 +3473,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>85</v>
@@ -3476,12 +3482,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>86</v>
@@ -3490,7 +3496,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>87</v>
@@ -3499,12 +3505,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>88</v>
@@ -3513,7 +3519,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>89</v>
@@ -3522,12 +3528,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>90</v>
@@ -3536,7 +3542,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>91</v>
@@ -3545,12 +3551,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>92</v>
@@ -3559,7 +3565,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>93</v>
@@ -3568,12 +3574,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>94</v>
@@ -3582,7 +3588,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>95</v>
@@ -3591,12 +3597,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>96</v>
@@ -3605,7 +3611,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>97</v>
@@ -3614,12 +3620,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>98</v>
@@ -3628,7 +3634,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>99</v>
@@ -3637,12 +3643,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>100</v>
@@ -3651,7 +3657,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>101</v>
@@ -3660,12 +3666,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>102</v>
@@ -3674,7 +3680,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>103</v>
@@ -3683,12 +3689,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>104</v>
@@ -3697,7 +3703,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>105</v>
@@ -3706,12 +3712,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>106</v>
@@ -3720,7 +3726,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>107</v>
@@ -3729,12 +3735,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>108</v>
@@ -3743,7 +3749,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>109</v>
@@ -3752,12 +3758,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>110</v>
@@ -3766,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>111</v>
@@ -3775,12 +3781,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>112</v>
@@ -3789,7 +3795,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>113</v>
@@ -3798,12 +3804,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>114</v>
@@ -3812,7 +3818,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>115</v>
@@ -3821,12 +3827,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>116</v>
@@ -3835,7 +3841,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>117</v>
@@ -3844,12 +3850,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>118</v>
@@ -3858,7 +3864,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>119</v>
@@ -3867,21 +3873,21 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>121</v>
@@ -3890,12 +3896,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>122</v>
@@ -3904,7 +3910,7 @@
         <v>16</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>123</v>
@@ -3913,21 +3919,21 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>125</v>
@@ -3936,35 +3942,35 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>144</v>
@@ -3982,15 +3988,15 @@
         <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4005,44 +4011,44 @@
         <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>73</v>
@@ -4051,21 +4057,21 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>75</v>
@@ -4074,12 +4080,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>76</v>
@@ -4088,7 +4094,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>77</v>
@@ -4097,12 +4103,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>78</v>
@@ -4111,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>79</v>
@@ -4120,12 +4126,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>80</v>
@@ -4134,7 +4140,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>81</v>
@@ -4143,12 +4149,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>82</v>
@@ -4157,7 +4163,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>83</v>
@@ -4166,12 +4172,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>84</v>
@@ -4180,7 +4186,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>85</v>
@@ -4189,12 +4195,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>86</v>
@@ -4203,7 +4209,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>87</v>
@@ -4212,12 +4218,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>88</v>
@@ -4226,7 +4232,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>89</v>
@@ -4235,12 +4241,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>90</v>
@@ -4249,7 +4255,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>91</v>
@@ -4258,12 +4264,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>92</v>
@@ -4272,7 +4278,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>93</v>
@@ -4281,12 +4287,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>94</v>
@@ -4295,7 +4301,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>95</v>
@@ -4304,12 +4310,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>96</v>
@@ -4318,7 +4324,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>97</v>
@@ -4327,12 +4333,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>98</v>
@@ -4341,7 +4347,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>99</v>
@@ -4350,12 +4356,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>100</v>
@@ -4364,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>101</v>
@@ -4373,12 +4379,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>102</v>
@@ -4387,7 +4393,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>103</v>
@@ -4396,12 +4402,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>104</v>
@@ -4410,7 +4416,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>105</v>
@@ -4419,12 +4425,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>106</v>
@@ -4433,7 +4439,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>107</v>
@@ -4442,12 +4448,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>108</v>
@@ -4456,7 +4462,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>109</v>
@@ -4465,12 +4471,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>110</v>
@@ -4479,7 +4485,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>111</v>
@@ -4488,12 +4494,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>112</v>
@@ -4502,7 +4508,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>113</v>
@@ -4511,12 +4517,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>114</v>
@@ -4525,7 +4531,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>115</v>
@@ -4534,12 +4540,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>116</v>
@@ -4548,7 +4554,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>117</v>
@@ -4557,12 +4563,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>118</v>
@@ -4571,7 +4577,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>119</v>
@@ -4580,21 +4586,21 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>121</v>
@@ -4603,12 +4609,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>122</v>
@@ -4617,7 +4623,7 @@
         <v>16</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>123</v>
@@ -4626,21 +4632,21 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>125</v>
@@ -4649,35 +4655,35 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="E177" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>144</v>
@@ -4689,53 +4695,53 @@
         <v>36</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4746,7 +4752,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>156</v>
@@ -4755,7 +4761,7 @@
         <v>16</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>157</v>
@@ -4769,7 +4775,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>158</v>
@@ -4778,7 +4784,7 @@
         <v>16</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>159</v>
@@ -4792,7 +4798,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>160</v>
@@ -4801,7 +4807,7 @@
         <v>16</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>161</v>
@@ -4815,7 +4821,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>162</v>
@@ -4824,7 +4830,7 @@
         <v>16</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>163</v>
@@ -4838,7 +4844,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>164</v>
@@ -4861,10 +4867,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>16</v>
@@ -4873,7 +4879,7 @@
         <v>36</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4884,7 +4890,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>169</v>
@@ -4907,7 +4913,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>171</v>
@@ -4925,6 +4931,29 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>24</v>
       </c>
     </row>
